--- a/T.i/BACK LOG (EXCEL).xlsx
+++ b/T.i/BACK LOG (EXCEL).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SPRINT 3 INDIVIDUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SETH\Desktop\Git individual\NEVER-GIVE-UP\T.i\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8686271E-AAA5-4A4A-B08F-1CFEFA014F28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57AEF2D-D1D1-486C-A2A1-D9306A373191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B307C3A8-8209-46B1-A895-B717482E787A}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FA356C-9DBE-4CA3-B353-E647470B2900}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
